--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,105 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+  <si>
+    <t>Project Plan</t>
+  </si>
   <si>
     <t>Week 7/28Oct</t>
   </si>
   <si>
+    <t>First meeting with supervisor,  Start working on plan.</t>
+  </si>
+  <si>
     <t>Week8/4Nov</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Plan Finished for semester 1 and have brief overview of semester 2 plan.  </t>
+  </si>
+  <si>
+    <t>2. took book from library about Raspberry Pi projects and have little overview</t>
+  </si>
+  <si>
+    <t>3. Download Raspbian and ask a friend to bring Rpi to college in next class.</t>
+  </si>
+  <si>
     <t>Week9/11Nov</t>
   </si>
   <si>
+    <t>1. Finalize plan after supervisor meeting and got Rpi from college (supervisor)</t>
+  </si>
+  <si>
+    <t>2. Draft of first Chapeter, Table of content(at least will have idea about semester 1 submission )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Read and learn how to configure motion sensor on Rpi using  Rpi guide book</t>
+  </si>
+  <si>
     <t>Week10/18Nov</t>
   </si>
   <si>
+    <t>1. Must install Raspbian in  Raspberry Pi and try to get motion sensor from college and try to use that with Rpi using knowledge gain from Rpi guide</t>
+  </si>
+  <si>
+    <t>2. Also need to finalize camera module that I will be using and order that ASAP,  must finalize the  project architecture that can be included to chapter 1 draft.</t>
+  </si>
+  <si>
+    <t>3. Start working on project proposal according to table of content(first need to focus on introduction,  problem, problem solution etc)</t>
+  </si>
+  <si>
+    <t>4. Semester 2 timeline in detail as per supervisor valuable suggestion.</t>
+  </si>
+  <si>
     <t>Week11/25Nov</t>
   </si>
   <si>
+    <t>1. Motion sensor should be working fine at this stage (if could not configure previously, must need to done the the end of this week)</t>
+  </si>
+  <si>
+    <t>2. After architecture design identify programming language that will be useful for project and start learning that.</t>
+  </si>
+  <si>
+    <t>3. Add technologies going to use in project(their discription, working and how that technology will help me in my project).</t>
+  </si>
+  <si>
     <t>Week12/2Dec</t>
   </si>
   <si>
+    <t>1. Read more related projects and compare with work done by me, and if some thing more efficient is found try to append that in project proposal.</t>
+  </si>
+  <si>
+    <t>2. Using Rpi guide book learn how to access camera module and how to make picture and videos with it.</t>
+  </si>
+  <si>
+    <t>3. learn python basics as it will be needed to configure Camera module.</t>
+  </si>
+  <si>
     <t>Week13/9Dec</t>
   </si>
   <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Plan Finished for semester 1 and have brief overview of semester 2 plan.  </t>
-  </si>
-  <si>
-    <t>2. took book from library about Raspberry Pi projects and have little overview</t>
-  </si>
-  <si>
-    <t>3. Download Raspbian and ask a friend to bring Rpi to college in next class.</t>
-  </si>
-  <si>
-    <t>First meeting with supervisor,  Start working on plan.</t>
-  </si>
-  <si>
-    <t>1. Must install Raspbian in  Raspberry Pi and try to get motion sensor from college and try to use that with Rpi using knowledge gain from Rpi guide</t>
-  </si>
-  <si>
-    <t>2. Draft of first Chapeter, Table of content(at least will have idea about semester 1 submission )</t>
-  </si>
-  <si>
-    <t>2. Also need to finalize camera module that I will be using and order that ASAP,  must finalize the  project architecture that can be included to chapter 1 draft.</t>
-  </si>
-  <si>
-    <t>3. Start working on project proposal according to table of content(first need to focus on introduction,  problem, problem solution etc)</t>
-  </si>
-  <si>
-    <t>1. Motion sensor should be working fine at this stage (if could not configure previously, must need to done the the end of this week)</t>
-  </si>
-  <si>
-    <t>2. After arcitecture design identify programming language that will be useful for project and start learning that.</t>
-  </si>
-  <si>
-    <t>3. If research done until this week document that (proper citation and harvard refrencing required)</t>
-  </si>
-  <si>
-    <t>2. Do some experiments with motion sensor. Test at different times and try to store logs of motion occur at different times by showing time at motion occur</t>
-  </si>
-  <si>
-    <t>3. Using Rpi guide book learn how to access camera module and how to make picture and videos with it.</t>
-  </si>
-  <si>
-    <t>4. Add technologies going to use in project(their discription, working and how that technology will help me in my project).</t>
-  </si>
-  <si>
-    <t>3.Read thoruoghly previous year projects and compare with work done by me, and if some thing more efficient is found try to append that in project proposal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4. Read and learn how to configure motion sensor and camera module on Rpi using books</t>
-  </si>
-  <si>
-    <t>4. Left empty for suoervisor suggestion</t>
-  </si>
-  <si>
     <t>1. Finalize first deliverable for submission as submission date will be by the end of this week expectedly</t>
   </si>
   <si>
-    <t>3. proof reading of Deliverable 1 before submission</t>
-  </si>
-  <si>
     <t>2. Make sure to cite Refrences used in project and cite that properly and also label images used in document if not done yet.</t>
   </si>
   <si>
+    <t>3. Test camera module if receive by this week and add documentation of experiment in Proposal draft.</t>
+  </si>
+  <si>
+    <t>Week14/16Dec</t>
+  </si>
+  <si>
+    <t>1. proof reading of Deliverable 1 before submission</t>
+  </si>
+  <si>
     <t>Exam period</t>
   </si>
   <si>
@@ -115,12 +126,12 @@
     <t>Semester 2 Starts</t>
   </si>
   <si>
+    <t>Timeline is not define yet, but few key tasks must need to do are specified below:-</t>
+  </si>
+  <si>
     <t>Camera module and its testing with Rpi, configure both camera and motion sensor work together</t>
   </si>
   <si>
-    <t>Timeline is not define yet, but few key tasks must need to do are specified below:-</t>
-  </si>
-  <si>
     <t>Front end interface</t>
   </si>
   <si>
@@ -130,40 +141,123 @@
     <t>Experiments with detail</t>
   </si>
   <si>
-    <t>Final prototype (final document ) presentatation, video demonstration for external examiner etc.</t>
-  </si>
-  <si>
-    <t>1. Finalize plan after supervisor meeting and got Rpi from college (supervisor)</t>
-  </si>
-  <si>
-    <t>1. Read more related projects and compare with work done by me, and if some thing more efficient is found try to append that in project proposal.</t>
+    <t>Final prototype (final document ) presentation, video demonstration for external examiner etc.</t>
+  </si>
+  <si>
+    <t>Week1/17Feb</t>
+  </si>
+  <si>
+    <t>1. If not tested the Camera module test that in this week.</t>
+  </si>
+  <si>
+    <t>Week2/24Feb</t>
+  </si>
+  <si>
+    <t>Week3/2Mar</t>
+  </si>
+  <si>
+    <t>Week4/9Mar</t>
+  </si>
+  <si>
+    <t>Week5/16Mar</t>
+  </si>
+  <si>
+    <t>Week6/23Mar</t>
+  </si>
+  <si>
+    <t>Week7/30Mar</t>
+  </si>
+  <si>
+    <t>Week8/6Apr</t>
+  </si>
+  <si>
+    <t>Week9/13Apr</t>
+  </si>
+  <si>
+    <t>Week10/20Apr</t>
+  </si>
+  <si>
+    <t>Week11/27Apr</t>
+  </si>
+  <si>
+    <t>Week12/4May</t>
+  </si>
+  <si>
+    <t>End of Semester. Submission expected this week. Read the finalize document to find mistakes if any and try to make it Efficient. Also need to record video if asked.</t>
+  </si>
+  <si>
+    <t>2. Make Rpi OwnCLoud enabled and test it by storing data in Rpi and access it on other device.</t>
+  </si>
+  <si>
+    <t>1. Test both sensor and camera module together and make camera able to take pic/video when motion occur.</t>
+  </si>
+  <si>
+    <t>2. If not successful in capturing video when motion occur then do some troubleshoot research and make a report what happen and why is happening.</t>
+  </si>
+  <si>
+    <t>1. Once successful in capturing video when motion occur, test that at different times and make it to store videos with different names i.ee (name videos with Time.)</t>
+  </si>
+  <si>
+    <t>2. Also Access storage data on some other device using OwnCloud which must need to be tested and enabled on Rpi before this week as already specified in earlier weeks task..</t>
+  </si>
+  <si>
+    <t>1. Start writing final report, Document the experiments.</t>
+  </si>
+  <si>
+    <t>2. Add external hard drive to Rpi and enable OwnCloud service on it.</t>
+  </si>
+  <si>
+    <t>1. Start working on Daigrams (Methodology), i.e use Case diagram, Activity Diagram, Sequence Diagram.</t>
+  </si>
+  <si>
+    <t>2. Core task need to be done before this week as specified already for previous weeks, research on how to make Rpi to send somew sort of notification if any motion occur.</t>
+  </si>
+  <si>
+    <t>1. Do practical to make Rpi able to send notification if motion occur (make some simple app where user can login and see notifications)</t>
+  </si>
+  <si>
+    <t>2. Write the final prototype made so far, (if become successful in sending notifications it can be added later on the final prototype document.)</t>
+  </si>
+  <si>
+    <t>1. Focus on Final document and its enhancement and also add researech done in order to sent notification message.</t>
+  </si>
+  <si>
+    <t>2. This week also do some work on making Rpi able to sent noftifications /messages (it will enhance the project functionality).</t>
+  </si>
+  <si>
+    <t>Feedback for semester1 draft will be received by this time, So try to make changes in final document if somethings missiing.</t>
+  </si>
+  <si>
+    <t>Near end of semester there may be pressure of other subjects assignments, so practical work should be done before April and leave this month to work on Documentation and experiments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize the Document and Show working model to supervisor and document to seek advices and implementations if needed. </t>
+  </si>
+  <si>
+    <t>If any suggestions from supervisor change and add that functionalities to project final articraft and also Make a presentation file for final presentation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1809]dd\-mmm\-yy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -172,23 +266,36 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,67 +304,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFFCD5B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC1DA"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B5"/>
+        <bgColor rgb="FFF2DCDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFCD5B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFC4BD97"/>
+        <bgColor rgb="FFCCC1DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF31859C"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,65 +374,127 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
-    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="6" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
-    <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Excel Built-in 20% - Accent1" xfId="3"/>
+    <cellStyle name="Excel Built-in 20% - Accent2" xfId="2"/>
+    <cellStyle name="Excel Built-in 40% - Accent3" xfId="4"/>
+    <cellStyle name="Excel Built-in 40% - Accent4" xfId="5"/>
+    <cellStyle name="Excel Built-in 40% - Accent5" xfId="6"/>
+    <cellStyle name="Excel Built-in 40% - Accent6" xfId="7"/>
+    <cellStyle name="Excel Built-in 60% - Accent1" xfId="1"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCC1DA"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF2DCDB"/>
+      <rgbColor rgb="FFDCE6F2"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFB7DEE8"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD7E4BD"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF95B3D7"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD5B5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFC4BD97"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF31859C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -379,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,263 +787,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="137.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="19" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>16</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>43820</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>43854</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>43815</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>43854</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:2" ht="37.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
